--- a/QiitaReader.xlsx
+++ b/QiitaReader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>レルム？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コアデータ？その周辺のライブラリ使う？</t>
+    <rPh sb="8" eb="10">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとで読む機能</t>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サムネイルorユーザーアイコン表示</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリを入れる</t>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュ機能も実装できる</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -35,6 +98,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -58,14 +139,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8501,14 +8586,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A31:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B28" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/QiitaReader.xlsx
+++ b/QiitaReader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="13940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8261,6 +8261,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>809336</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>181264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>235604</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="299" name="図 298" descr="1473687346.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4694042" y="7128911"/>
+          <a:ext cx="397444" cy="396756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8588,8 +8632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A31:B41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
